--- a/results/mp/tinybert/toy-spam/confidence/168/stop-words-masking-0.5/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/toy-spam/confidence/168/stop-words-masking-0.5/avg_0.004_scores.xlsx
@@ -46,58 +46,52 @@
     <t>disappointing</t>
   </si>
   <si>
+    <t>however</t>
+  </si>
+  <si>
     <t>poor</t>
   </si>
   <si>
-    <t>however</t>
-  </si>
-  <si>
     <t>disappointed</t>
   </si>
   <si>
+    <t>waste</t>
+  </si>
+  <si>
+    <t>broke</t>
+  </si>
+  <si>
     <t>junk</t>
   </si>
   <si>
-    <t>broke</t>
-  </si>
-  <si>
-    <t>waste</t>
-  </si>
-  <si>
-    <t>water</t>
-  </si>
-  <si>
-    <t>instead</t>
-  </si>
-  <si>
     <t>smaller</t>
   </si>
   <si>
+    <t>small</t>
+  </si>
+  <si>
+    <t>guess</t>
+  </si>
+  <si>
     <t>broken</t>
   </si>
   <si>
-    <t>small</t>
-  </si>
-  <si>
-    <t>guess</t>
-  </si>
-  <si>
-    <t>okay</t>
+    <t>plastic</t>
+  </si>
+  <si>
+    <t>paint</t>
+  </si>
+  <si>
+    <t>apart</t>
+  </si>
+  <si>
+    <t>ok</t>
   </si>
   <si>
     <t>cheap</t>
   </si>
   <si>
-    <t>di</t>
-  </si>
-  <si>
-    <t>apart</t>
-  </si>
-  <si>
-    <t>ok</t>
-  </si>
-  <si>
-    <t>plastic</t>
+    <t>pay</t>
   </si>
   <si>
     <t>difficult</t>
@@ -106,84 +100,84 @@
     <t>thought</t>
   </si>
   <si>
+    <t>though</t>
+  </si>
+  <si>
     <t>bit</t>
   </si>
   <si>
+    <t>size</t>
+  </si>
+  <si>
+    <t>item</t>
+  </si>
+  <si>
+    <t>money</t>
+  </si>
+  <si>
+    <t>work</t>
+  </si>
+  <si>
+    <t>back</t>
+  </si>
+  <si>
+    <t>would</t>
+  </si>
+  <si>
     <t>hard</t>
   </si>
   <si>
-    <t>though</t>
-  </si>
-  <si>
-    <t>size</t>
-  </si>
-  <si>
-    <t>money</t>
-  </si>
-  <si>
-    <t>back</t>
+    <t>box</t>
   </si>
   <si>
     <t>price</t>
   </si>
   <si>
-    <t>item</t>
-  </si>
-  <si>
-    <t>would</t>
-  </si>
-  <si>
-    <t>work</t>
+    <t>could</t>
+  </si>
+  <si>
+    <t>better</t>
   </si>
   <si>
     <t>product</t>
   </si>
   <si>
-    <t>box</t>
+    <t>2</t>
+  </si>
+  <si>
+    <t>used</t>
+  </si>
+  <si>
+    <t>way</t>
+  </si>
+  <si>
+    <t>buy</t>
+  </si>
+  <si>
+    <t>use</t>
   </si>
   <si>
     <t>pieces</t>
   </si>
   <si>
-    <t>used</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>expected</t>
-  </si>
-  <si>
-    <t>could</t>
-  </si>
-  <si>
     <t>3</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>buy</t>
-  </si>
-  <si>
-    <t>use</t>
-  </si>
-  <si>
     <t>little</t>
   </si>
   <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>even</t>
+  </si>
+  <si>
+    <t>get</t>
+  </si>
+  <si>
     <t>made</t>
   </si>
   <si>
-    <t>even</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
     <t>much</t>
   </si>
   <si>
@@ -193,39 +187,36 @@
     <t>one</t>
   </si>
   <si>
-    <t>get</t>
-  </si>
-  <si>
     <t>bought</t>
   </si>
   <si>
     <t>negative</t>
   </si>
   <si>
+    <t>wonderful</t>
+  </si>
+  <si>
     <t>awesome</t>
   </si>
   <si>
     <t>favorite</t>
   </si>
   <si>
-    <t>wonderful</t>
-  </si>
-  <si>
     <t>excellent</t>
   </si>
   <si>
     <t>classic</t>
   </si>
   <si>
+    <t>thank</t>
+  </si>
+  <si>
     <t>love</t>
   </si>
   <si>
     <t>loves</t>
   </si>
   <si>
-    <t>thank</t>
-  </si>
-  <si>
     <t>great</t>
   </si>
   <si>
@@ -244,6 +235,9 @@
     <t>happy</t>
   </si>
   <si>
+    <t>every</t>
+  </si>
+  <si>
     <t>learn</t>
   </si>
   <si>
@@ -253,31 +247,37 @@
     <t>christmas</t>
   </si>
   <si>
-    <t>every</t>
-  </si>
-  <si>
     <t>fun</t>
   </si>
   <si>
     <t>enjoyed</t>
   </si>
   <si>
+    <t>family</t>
+  </si>
+  <si>
     <t>game</t>
   </si>
   <si>
-    <t>family</t>
-  </si>
-  <si>
     <t>easy</t>
   </si>
   <si>
+    <t>cute</t>
+  </si>
+  <si>
     <t>playing</t>
   </si>
   <si>
     <t>play</t>
   </si>
   <si>
+    <t>son</t>
+  </si>
+  <si>
     <t>good</t>
+  </si>
+  <si>
+    <t>kids</t>
   </si>
   <si>
     <t>positive</t>
@@ -638,7 +638,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q55"/>
+  <dimension ref="A1:Q52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -646,7 +646,7 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="J1" t="s">
         <v>88</v>
@@ -707,13 +707,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0.9782608695652174</v>
       </c>
       <c r="C3">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D3">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -725,19 +725,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="K3">
-        <v>0.8769230769230769</v>
+        <v>0.9107142857142857</v>
       </c>
       <c r="L3">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="M3">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -749,7 +749,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -757,13 +757,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8636363636363636</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="C4">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D4">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -775,19 +775,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="K4">
-        <v>0.8602150537634409</v>
+        <v>0.8615384615384616</v>
       </c>
       <c r="L4">
-        <v>80</v>
+        <v>56</v>
       </c>
       <c r="M4">
-        <v>80</v>
+        <v>56</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -799,7 +799,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -807,13 +807,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8028169014084507</v>
+        <v>0.78125</v>
       </c>
       <c r="C5">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="D5">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -828,16 +828,16 @@
         <v>14</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="K5">
-        <v>0.8571428571428571</v>
+        <v>0.8602150537634409</v>
       </c>
       <c r="L5">
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="M5">
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -849,7 +849,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -857,13 +857,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.765625</v>
+        <v>0.7746478873239436</v>
       </c>
       <c r="C6">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="D6">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -875,10 +875,10 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="K6">
         <v>0.796875</v>
@@ -907,13 +907,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7526881720430108</v>
+        <v>0.7311827956989247</v>
       </c>
       <c r="C7">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="D7">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -925,19 +925,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="K7">
-        <v>0.6415094339622641</v>
+        <v>0.6981132075471698</v>
       </c>
       <c r="L7">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="M7">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -949,7 +949,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -957,13 +957,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7272727272727273</v>
+        <v>0.722972972972973</v>
       </c>
       <c r="C8">
-        <v>40</v>
+        <v>107</v>
       </c>
       <c r="D8">
-        <v>40</v>
+        <v>107</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -975,19 +975,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="K8">
-        <v>0.6312769010043041</v>
+        <v>0.6376811594202898</v>
       </c>
       <c r="L8">
-        <v>440</v>
+        <v>44</v>
       </c>
       <c r="M8">
-        <v>440</v>
+        <v>44</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -999,7 +999,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>257</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1007,13 +1007,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7087378640776699</v>
+        <v>0.7135922330097088</v>
       </c>
       <c r="C9">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D9">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1025,19 +1025,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="K9">
-        <v>0.6037344398340249</v>
+        <v>0.6212338593974175</v>
       </c>
       <c r="L9">
-        <v>291</v>
+        <v>433</v>
       </c>
       <c r="M9">
-        <v>291</v>
+        <v>433</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1049,7 +1049,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>191</v>
+        <v>264</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1057,13 +1057,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.7027027027027027</v>
+        <v>0.6181818181818182</v>
       </c>
       <c r="C10">
-        <v>104</v>
+        <v>34</v>
       </c>
       <c r="D10">
-        <v>104</v>
+        <v>34</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1075,19 +1075,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="K10">
-        <v>0.5942028985507246</v>
+        <v>0.578838174273859</v>
       </c>
       <c r="L10">
-        <v>41</v>
+        <v>279</v>
       </c>
       <c r="M10">
-        <v>41</v>
+        <v>279</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>28</v>
+        <v>203</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1107,13 +1107,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.6904761904761905</v>
+        <v>0.6134453781512605</v>
       </c>
       <c r="C11">
-        <v>29</v>
+        <v>73</v>
       </c>
       <c r="D11">
-        <v>29</v>
+        <v>73</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1125,19 +1125,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="K11">
-        <v>0.5278688524590164</v>
+        <v>0.5459016393442623</v>
       </c>
       <c r="L11">
-        <v>644</v>
+        <v>666</v>
       </c>
       <c r="M11">
-        <v>644</v>
+        <v>666</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1149,7 +1149,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>576</v>
+        <v>554</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1157,13 +1157,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.6875</v>
+        <v>0.5681159420289855</v>
       </c>
       <c r="C12">
-        <v>33</v>
+        <v>196</v>
       </c>
       <c r="D12">
-        <v>33</v>
+        <v>196</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1175,19 +1175,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>15</v>
+        <v>149</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="K12">
-        <v>0.4578313253012048</v>
+        <v>0.4698795180722892</v>
       </c>
       <c r="L12">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="M12">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1199,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1207,13 +1207,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.6218487394957983</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="C13">
-        <v>74</v>
+        <v>30</v>
       </c>
       <c r="D13">
-        <v>74</v>
+        <v>30</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1225,19 +1225,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="K13">
-        <v>0.4525993883792049</v>
+        <v>0.4617737003058104</v>
       </c>
       <c r="L13">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="M13">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1249,7 +1249,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1257,13 +1257,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.6144578313253012</v>
+        <v>0.5542168674698795</v>
       </c>
       <c r="C14">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D14">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1275,19 +1275,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="K14">
-        <v>0.4497354497354497</v>
+        <v>0.455026455026455</v>
       </c>
       <c r="L14">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="M14">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1299,7 +1299,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1307,13 +1307,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.6</v>
+        <v>0.5433070866141733</v>
       </c>
       <c r="C15">
-        <v>207</v>
+        <v>69</v>
       </c>
       <c r="D15">
-        <v>207</v>
+        <v>69</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1325,31 +1325,31 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>138</v>
+        <v>58</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="K15">
-        <v>0.4</v>
+        <v>0.3445378151260504</v>
       </c>
       <c r="L15">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="M15">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="N15">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q15">
-        <v>72</v>
+        <v>78</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1357,7 +1357,7 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.5925925925925926</v>
+        <v>0.5079365079365079</v>
       </c>
       <c r="C16">
         <v>32</v>
@@ -1375,31 +1375,31 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="K16">
-        <v>0.3661971830985916</v>
+        <v>0.3404255319148936</v>
       </c>
       <c r="L16">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="M16">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="N16">
-        <v>0.98</v>
+        <v>0.96</v>
       </c>
       <c r="O16">
-        <v>0.02000000000000002</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P16" t="b">
         <v>1</v>
       </c>
       <c r="Q16">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1407,13 +1407,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.5555555555555556</v>
+        <v>0.4947368421052631</v>
       </c>
       <c r="C17">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="D17">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1425,19 +1425,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="K17">
-        <v>0.3359375</v>
+        <v>0.336</v>
       </c>
       <c r="L17">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M17">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1449,7 +1449,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1457,13 +1457,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.5165876777251185</v>
+        <v>0.4765625</v>
       </c>
       <c r="C18">
-        <v>109</v>
+        <v>61</v>
       </c>
       <c r="D18">
-        <v>109</v>
+        <v>61</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1475,31 +1475,31 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>102</v>
+        <v>67</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="K18">
-        <v>0.2918918918918919</v>
+        <v>0.3046875</v>
       </c>
       <c r="L18">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="M18">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="N18">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O18">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>131</v>
+        <v>89</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1507,13 +1507,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.5</v>
+        <v>0.4739336492890995</v>
       </c>
       <c r="C19">
-        <v>32</v>
+        <v>100</v>
       </c>
       <c r="D19">
-        <v>32</v>
+        <v>100</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1525,31 +1525,31 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>32</v>
+        <v>111</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="K19">
-        <v>0.2834008097165992</v>
+        <v>0.2956989247311828</v>
       </c>
       <c r="L19">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="M19">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="N19">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O19">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>177</v>
+        <v>131</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1557,13 +1557,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.4736842105263158</v>
+        <v>0.4603174603174603</v>
       </c>
       <c r="C20">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="D20">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1575,31 +1575,31 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="K20">
-        <v>0.272</v>
+        <v>0.2631578947368421</v>
       </c>
       <c r="L20">
-        <v>34</v>
+        <v>65</v>
       </c>
       <c r="M20">
-        <v>34</v>
+        <v>67</v>
       </c>
       <c r="N20">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q20">
-        <v>91</v>
+        <v>182</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1607,13 +1607,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.46875</v>
+        <v>0.4157303370786517</v>
       </c>
       <c r="C21">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="D21">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1625,31 +1625,31 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="K21">
-        <v>0.252863436123348</v>
+        <v>0.2434094903339191</v>
       </c>
       <c r="L21">
-        <v>287</v>
+        <v>277</v>
       </c>
       <c r="M21">
-        <v>293</v>
+        <v>280</v>
       </c>
       <c r="N21">
-        <v>0.98</v>
+        <v>0.99</v>
       </c>
       <c r="O21">
-        <v>0.02000000000000002</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P21" t="b">
         <v>1</v>
       </c>
       <c r="Q21">
-        <v>848</v>
+        <v>861</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1657,13 +1657,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.4566929133858268</v>
+        <v>0.3712871287128713</v>
       </c>
       <c r="C22">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="D22">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1675,19 +1675,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>69</v>
+        <v>127</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="K22">
-        <v>0.246031746031746</v>
+        <v>0.2380952380952381</v>
       </c>
       <c r="L22">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M22">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1699,7 +1699,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1707,13 +1707,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.3707865168539326</v>
+        <v>0.3076923076923077</v>
       </c>
       <c r="C23">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D23">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1725,31 +1725,31 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>56</v>
+        <v>81</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="K23">
-        <v>0.1536458333333333</v>
+        <v>0.1615598885793872</v>
       </c>
       <c r="L23">
-        <v>236</v>
+        <v>58</v>
       </c>
       <c r="M23">
-        <v>241</v>
+        <v>58</v>
       </c>
       <c r="N23">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O23">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>1300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1757,13 +1757,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.3465346534653465</v>
+        <v>0.3061224489795918</v>
       </c>
       <c r="C24">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="D24">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1775,31 +1775,31 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>132</v>
+        <v>68</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="K24">
-        <v>0.1536312849162011</v>
+        <v>0.1433224755700326</v>
       </c>
       <c r="L24">
-        <v>55</v>
+        <v>220</v>
       </c>
       <c r="M24">
-        <v>56</v>
+        <v>226</v>
       </c>
       <c r="N24">
-        <v>0.98</v>
+        <v>0.97</v>
       </c>
       <c r="O24">
-        <v>0.02000000000000002</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P24" t="b">
         <v>1</v>
       </c>
       <c r="Q24">
-        <v>303</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1807,13 +1807,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.336734693877551</v>
+        <v>0.2938144329896907</v>
       </c>
       <c r="C25">
-        <v>33</v>
+        <v>57</v>
       </c>
       <c r="D25">
-        <v>33</v>
+        <v>57</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1825,31 +1825,31 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>65</v>
+        <v>137</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="K25">
-        <v>0.1424731182795699</v>
+        <v>0.1394101876675603</v>
       </c>
       <c r="L25">
+        <v>52</v>
+      </c>
+      <c r="M25">
         <v>53</v>
       </c>
-      <c r="M25">
-        <v>55</v>
-      </c>
       <c r="N25">
-        <v>0.96</v>
+        <v>0.98</v>
       </c>
       <c r="O25">
-        <v>0.04000000000000004</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P25" t="b">
         <v>1</v>
       </c>
       <c r="Q25">
-        <v>319</v>
+        <v>321</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1857,13 +1857,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.315</v>
+        <v>0.2753623188405797</v>
       </c>
       <c r="C26">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="D26">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1875,31 +1875,31 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>137</v>
+        <v>200</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="K26">
-        <v>0.09907120743034056</v>
+        <v>0.1254901960784314</v>
       </c>
       <c r="L26">
         <v>32</v>
       </c>
       <c r="M26">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N26">
-        <v>0.97</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O26">
-        <v>0.03000000000000003</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P26" t="b">
         <v>1</v>
       </c>
       <c r="Q26">
-        <v>291</v>
+        <v>223</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1907,49 +1907,49 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.3076923076923077</v>
+        <v>0.2753164556962026</v>
       </c>
       <c r="C27">
+        <v>87</v>
+      </c>
+      <c r="D27">
+        <v>87</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27" t="b">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>229</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="K27">
+        <v>0.1121495327102804</v>
+      </c>
+      <c r="L27">
         <v>36</v>
       </c>
-      <c r="D27">
-        <v>36</v>
-      </c>
-      <c r="E27">
-        <v>0</v>
-      </c>
-      <c r="F27">
-        <v>1</v>
-      </c>
-      <c r="G27" t="b">
-        <v>0</v>
-      </c>
-      <c r="H27">
-        <v>81</v>
-      </c>
-      <c r="J27" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="K27">
-        <v>0.09504685408299866</v>
-      </c>
-      <c r="L27">
-        <v>71</v>
-      </c>
       <c r="M27">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="N27">
-        <v>0.93</v>
+        <v>0.92</v>
       </c>
       <c r="O27">
-        <v>0.06999999999999995</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="P27" t="b">
         <v>1</v>
       </c>
       <c r="Q27">
-        <v>676</v>
+        <v>285</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1957,49 +1957,49 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.288659793814433</v>
+        <v>0.2666666666666667</v>
       </c>
       <c r="C28">
-        <v>56</v>
+        <v>84</v>
       </c>
       <c r="D28">
-        <v>56</v>
+        <v>85</v>
       </c>
       <c r="E28">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F28">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="G28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H28">
-        <v>138</v>
+        <v>231</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="K28">
-        <v>0.04617604617604618</v>
+        <v>0.1033557046979866</v>
       </c>
       <c r="L28">
-        <v>32</v>
+        <v>77</v>
       </c>
       <c r="M28">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="N28">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="O28">
-        <v>0.27</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="P28" t="b">
         <v>1</v>
       </c>
       <c r="Q28">
-        <v>661</v>
+        <v>668</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2007,25 +2007,49 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.2848101265822785</v>
+        <v>0.2661870503597122</v>
       </c>
       <c r="C29">
-        <v>90</v>
+        <v>37</v>
       </c>
       <c r="D29">
-        <v>90</v>
+        <v>38</v>
       </c>
       <c r="E29">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="F29">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="G29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H29">
-        <v>226</v>
+        <v>102</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="K29">
+        <v>0.07511737089201878</v>
+      </c>
+      <c r="L29">
+        <v>32</v>
+      </c>
+      <c r="M29">
+        <v>39</v>
+      </c>
+      <c r="N29">
+        <v>0.82</v>
+      </c>
+      <c r="O29">
+        <v>0.18</v>
+      </c>
+      <c r="P29" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q29">
+        <v>394</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2033,25 +2057,49 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.2785714285714286</v>
+        <v>0.2633928571428572</v>
       </c>
       <c r="C30">
-        <v>39</v>
+        <v>177</v>
       </c>
       <c r="D30">
-        <v>39</v>
+        <v>179</v>
       </c>
       <c r="E30">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F30">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="G30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H30">
-        <v>101</v>
+        <v>495</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="K30">
+        <v>0.0707070707070707</v>
+      </c>
+      <c r="L30">
+        <v>49</v>
+      </c>
+      <c r="M30">
+        <v>61</v>
+      </c>
+      <c r="N30">
+        <v>0.8</v>
+      </c>
+      <c r="O30">
+        <v>0.2</v>
+      </c>
+      <c r="P30" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q30">
+        <v>644</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2059,25 +2107,49 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.2680115273775216</v>
+        <v>0.26</v>
       </c>
       <c r="C31">
-        <v>93</v>
+        <v>52</v>
       </c>
       <c r="D31">
-        <v>94</v>
+        <v>52</v>
       </c>
       <c r="E31">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F31">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="G31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H31">
-        <v>254</v>
+        <v>148</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="K31">
+        <v>0.0625</v>
+      </c>
+      <c r="L31">
+        <v>35</v>
+      </c>
+      <c r="M31">
+        <v>40</v>
+      </c>
+      <c r="N31">
+        <v>0.88</v>
+      </c>
+      <c r="O31">
+        <v>0.12</v>
+      </c>
+      <c r="P31" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q31">
+        <v>525</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2085,13 +2157,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.2644927536231884</v>
+        <v>0.2460732984293194</v>
       </c>
       <c r="C32">
-        <v>73</v>
+        <v>47</v>
       </c>
       <c r="D32">
-        <v>73</v>
+        <v>47</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2103,7 +2175,7 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>203</v>
+        <v>144</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2111,13 +2183,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.2354694485842027</v>
+        <v>0.2312138728323699</v>
       </c>
       <c r="C33">
-        <v>158</v>
+        <v>80</v>
       </c>
       <c r="D33">
-        <v>161</v>
+        <v>82</v>
       </c>
       <c r="E33">
         <v>0.02</v>
@@ -2129,7 +2201,7 @@
         <v>1</v>
       </c>
       <c r="H33">
-        <v>513</v>
+        <v>266</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2137,25 +2209,25 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.2215189873417721</v>
+        <v>0.2243589743589744</v>
       </c>
       <c r="C34">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="D34">
-        <v>70</v>
+        <v>36</v>
       </c>
       <c r="E34">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="F34">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="G34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H34">
-        <v>246</v>
+        <v>121</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2163,25 +2235,25 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.2185430463576159</v>
+        <v>0.2242990654205607</v>
       </c>
       <c r="C35">
-        <v>99</v>
+        <v>48</v>
       </c>
       <c r="D35">
-        <v>100</v>
+        <v>48</v>
       </c>
       <c r="E35">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F35">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="G35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H35">
-        <v>354</v>
+        <v>166</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2189,25 +2261,25 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.2146596858638743</v>
+        <v>0.2239467849223947</v>
       </c>
       <c r="C36">
-        <v>41</v>
+        <v>101</v>
       </c>
       <c r="D36">
-        <v>41</v>
+        <v>104</v>
       </c>
       <c r="E36">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="F36">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="G36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H36">
-        <v>150</v>
+        <v>350</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2215,25 +2287,25 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.2142857142857143</v>
+        <v>0.183206106870229</v>
       </c>
       <c r="C37">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="D37">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="E37">
-        <v>0.03</v>
+        <v>0.09</v>
       </c>
       <c r="F37">
-        <v>0.97</v>
+        <v>0.91</v>
       </c>
       <c r="G37" t="b">
         <v>1</v>
       </c>
       <c r="H37">
-        <v>143</v>
+        <v>214</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2241,25 +2313,25 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.2138728323699422</v>
+        <v>0.1771428571428571</v>
       </c>
       <c r="C38">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D38">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="E38">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="F38">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="G38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H38">
-        <v>136</v>
+        <v>144</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2267,25 +2339,25 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.2102803738317757</v>
+        <v>0.1736526946107785</v>
       </c>
       <c r="C39">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="D39">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="E39">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="F39">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="G39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H39">
-        <v>169</v>
+        <v>138</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2293,25 +2365,25 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.203125</v>
+        <v>0.1628571428571429</v>
       </c>
       <c r="C40">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="D40">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="E40">
-        <v>0</v>
+        <v>0.08</v>
       </c>
       <c r="F40">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="G40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H40">
-        <v>153</v>
+        <v>293</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2319,25 +2391,25 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.1974522292993631</v>
+        <v>0.1597796143250689</v>
       </c>
       <c r="C41">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="D41">
-        <v>31</v>
+        <v>60</v>
       </c>
       <c r="E41">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="F41">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="G41" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H41">
-        <v>126</v>
+        <v>305</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2345,25 +2417,25 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.180327868852459</v>
+        <v>0.1584699453551913</v>
       </c>
       <c r="C42">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="D42">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="E42">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="F42">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="G42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H42">
-        <v>200</v>
+        <v>154</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2371,13 +2443,13 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.1755725190839695</v>
+        <v>0.1557377049180328</v>
       </c>
       <c r="C43">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="D43">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="E43">
         <v>0.1</v>
@@ -2389,7 +2461,7 @@
         <v>1</v>
       </c>
       <c r="H43">
-        <v>216</v>
+        <v>206</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2397,25 +2469,25 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.1684782608695652</v>
+        <v>0.1331828442437923</v>
       </c>
       <c r="C44">
-        <v>31</v>
+        <v>59</v>
       </c>
       <c r="D44">
-        <v>36</v>
+        <v>65</v>
       </c>
       <c r="E44">
-        <v>0.14</v>
+        <v>0.09</v>
       </c>
       <c r="F44">
-        <v>0.86</v>
+        <v>0.91</v>
       </c>
       <c r="G44" t="b">
         <v>1</v>
       </c>
       <c r="H44">
-        <v>153</v>
+        <v>384</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2423,25 +2495,25 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.1538461538461539</v>
+        <v>0.1287625418060201</v>
       </c>
       <c r="C45">
-        <v>54</v>
+        <v>77</v>
       </c>
       <c r="D45">
-        <v>58</v>
+        <v>87</v>
       </c>
       <c r="E45">
-        <v>0.07000000000000001</v>
+        <v>0.11</v>
       </c>
       <c r="F45">
-        <v>0.9299999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="G45" t="b">
         <v>1</v>
       </c>
       <c r="H45">
-        <v>297</v>
+        <v>521</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2449,25 +2521,25 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.1408839779005525</v>
+        <v>0.12</v>
       </c>
       <c r="C46">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="D46">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="E46">
-        <v>0.06</v>
+        <v>0.13</v>
       </c>
       <c r="F46">
-        <v>0.9399999999999999</v>
+        <v>0.87</v>
       </c>
       <c r="G46" t="b">
         <v>1</v>
       </c>
       <c r="H46">
-        <v>311</v>
+        <v>242</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2475,25 +2547,25 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.1278026905829596</v>
+        <v>0.1119047619047619</v>
       </c>
       <c r="C47">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="D47">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E47">
-        <v>0.05</v>
+        <v>0.16</v>
       </c>
       <c r="F47">
-        <v>0.95</v>
+        <v>0.84</v>
       </c>
       <c r="G47" t="b">
         <v>1</v>
       </c>
       <c r="H47">
-        <v>389</v>
+        <v>373</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2501,25 +2573,25 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.126984126984127</v>
+        <v>0.1118210862619808</v>
       </c>
       <c r="C48">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D48">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E48">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="F48">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="G48" t="b">
         <v>1</v>
       </c>
       <c r="H48">
-        <v>275</v>
+        <v>278</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2527,25 +2599,25 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.1254480286738351</v>
+        <v>0.1030444964871194</v>
       </c>
       <c r="C49">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="D49">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="E49">
-        <v>0.03</v>
+        <v>0.14</v>
       </c>
       <c r="F49">
-        <v>0.97</v>
+        <v>0.86</v>
       </c>
       <c r="G49" t="b">
         <v>1</v>
       </c>
       <c r="H49">
-        <v>244</v>
+        <v>383</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2553,25 +2625,25 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0.1005025125628141</v>
+        <v>0.08864696734059098</v>
       </c>
       <c r="C50">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D50">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E50">
-        <v>0.15</v>
+        <v>0.17</v>
       </c>
       <c r="F50">
-        <v>0.85</v>
+        <v>0.83</v>
       </c>
       <c r="G50" t="b">
         <v>1</v>
       </c>
       <c r="H50">
-        <v>537</v>
+        <v>586</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2579,25 +2651,25 @@
         <v>56</v>
       </c>
       <c r="B51">
-        <v>0.09738717339667459</v>
+        <v>0.08560311284046693</v>
       </c>
       <c r="C51">
-        <v>41</v>
+        <v>66</v>
       </c>
       <c r="D51">
-        <v>54</v>
+        <v>89</v>
       </c>
       <c r="E51">
-        <v>0.24</v>
+        <v>0.26</v>
       </c>
       <c r="F51">
-        <v>0.76</v>
+        <v>0.74</v>
       </c>
       <c r="G51" t="b">
         <v>1</v>
       </c>
       <c r="H51">
-        <v>380</v>
+        <v>705</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2605,103 +2677,25 @@
         <v>57</v>
       </c>
       <c r="B52">
-        <v>0.09273570324574962</v>
+        <v>0.06412825651302605</v>
       </c>
       <c r="C52">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="D52">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="E52">
-        <v>0.12</v>
+        <v>0.14</v>
       </c>
       <c r="F52">
-        <v>0.88</v>
+        <v>0.86</v>
       </c>
       <c r="G52" t="b">
         <v>1</v>
       </c>
       <c r="H52">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
-      <c r="A53" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B53">
-        <v>0.08808290155440414</v>
-      </c>
-      <c r="C53">
-        <v>68</v>
-      </c>
-      <c r="D53">
-        <v>90</v>
-      </c>
-      <c r="E53">
-        <v>0.24</v>
-      </c>
-      <c r="F53">
-        <v>0.76</v>
-      </c>
-      <c r="G53" t="b">
-        <v>1</v>
-      </c>
-      <c r="H53">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
-      <c r="A54" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B54">
-        <v>0.0831353919239905</v>
-      </c>
-      <c r="C54">
-        <v>35</v>
-      </c>
-      <c r="D54">
-        <v>43</v>
-      </c>
-      <c r="E54">
-        <v>0.19</v>
-      </c>
-      <c r="F54">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="G54" t="b">
-        <v>1</v>
-      </c>
-      <c r="H54">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
-      <c r="A55" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B55">
-        <v>0.06275303643724696</v>
-      </c>
-      <c r="C55">
-        <v>31</v>
-      </c>
-      <c r="D55">
-        <v>41</v>
-      </c>
-      <c r="E55">
-        <v>0.24</v>
-      </c>
-      <c r="F55">
-        <v>0.76</v>
-      </c>
-      <c r="G55" t="b">
-        <v>1</v>
-      </c>
-      <c r="H55">
-        <v>463</v>
+        <v>467</v>
       </c>
     </row>
   </sheetData>
